--- a/excelTemps/suppliers.xlsx
+++ b/excelTemps/suppliers.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
-    <sheet name="REFERENCES" sheetId="1" r:id="rId1"/>
+    <sheet name="SUPPLIERS" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">REFERENCES!$A$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SUPPLIERS!$A$2:$I$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
